--- a/biology/Botanique/Louis_Dupire/Louis_Dupire.xlsx
+++ b/biology/Botanique/Louis_Dupire/Louis_Dupire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Louis Dupire, né à Ploërmel en Bretagne le 5 décembre 1887 et mort le 19 juin 1942 à Montréal, est un journaliste québécois féru de botanique. Il est aussi connu sous de nombreux pseudonymes : Paul Anger, Louis Breton, Jacques Cœur, Le Grincheux, Nemo, Nessus, Pascal, Sans-Quartier[1]. Il est un des instigateurs  avec le Frère Marie Victorin[2] du Jardin botanique de Montréal  en 1931[3].
+Louis Dupire, né à Ploërmel en Bretagne le 5 décembre 1887 et mort le 19 juin 1942 à Montréal, est un journaliste québécois féru de botanique. Il est aussi connu sous de nombreux pseudonymes : Paul Anger, Louis Breton, Jacques Cœur, Le Grincheux, Nemo, Nessus, Pascal, Sans-Quartier. Il est un des instigateurs  avec le Frère Marie Victorin du Jardin botanique de Montréal  en 1931.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Dupire n'a que trois ans quand ses parents quittent la France et migrent pour les États-Unis. 
-En 1912, il s'installe au Canada et bien qu'ayant songé à poursuivre des études médicales[1], il s'oriente vers le journalisme. Il entre au journal Le Devoir en 1912 et y restera trente ans[1] ; conjointement, il travaille aussi avec d'autres journaux[2].
-Il se marie avec Yvonne d'Estimauville, le 4 mai 1914. De leur union naîtront six enfants : Bernard, Marie, Thérèse, Jean, Jacques et Pierre[1].
-Il était très impliqué auprès plusieurs œuvres de charité et hôpitaux[4]. Il militait également en faveur du logement salubre et était plus généralement un défenseur acharné des Canadiens-Français. Passionné par la botanique, il était responsable de la rubrique des Cercles des Jeunes Naturalistes dans le journal Le Devoir[1].
-Il appuie et encourage le Frère Marie-Victorin qui veut fonder un parc botanique à Montréal[4].
+En 1912, il s'installe au Canada et bien qu'ayant songé à poursuivre des études médicales, il s'oriente vers le journalisme. Il entre au journal Le Devoir en 1912 et y restera trente ans ; conjointement, il travaille aussi avec d'autres journaux.
+Il se marie avec Yvonne d'Estimauville, le 4 mai 1914. De leur union naîtront six enfants : Bernard, Marie, Thérèse, Jean, Jacques et Pierre.
+Il était très impliqué auprès plusieurs œuvres de charité et hôpitaux. Il militait également en faveur du logement salubre et était plus généralement un défenseur acharné des Canadiens-Français. Passionné par la botanique, il était responsable de la rubrique des Cercles des Jeunes Naturalistes dans le journal Le Devoir.
+Il appuie et encourage le Frère Marie-Victorin qui veut fonder un parc botanique à Montréal.
 Il décède en juin 1942, victime d’un œdème pulmonaire.
 Il est le grand-père du comédien québécois Serge Dupire.
 </t>
